--- a/MesAdmin/Template/A1/电子工艺.xlsx
+++ b/MesAdmin/Template/A1/电子工艺.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="216">
   <si>
     <t>工艺编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -860,6 +860,18 @@
   </si>
   <si>
     <t>工艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NP170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -992,7 +1004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1054,6 +1066,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1360,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B97"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1375,9 +1390,11 @@
     <col min="5" max="5" width="19.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.125" style="4" customWidth="1"/>
     <col min="7" max="7" width="23.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.375" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1399,8 +1416,14 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1419,8 +1442,11 @@
       <c r="G2" s="11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H2" s="23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1439,8 +1465,11 @@
       <c r="G3" s="11" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H3" s="23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1459,8 +1488,11 @@
       <c r="G4" s="11" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H4" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -1479,8 +1511,11 @@
       <c r="G5" s="12" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H5" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1499,8 +1534,11 @@
       <c r="G6" s="11" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H6" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1519,8 +1557,11 @@
       <c r="G7" s="11" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H7" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -1539,8 +1580,11 @@
       <c r="G8" s="13" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H8" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1559,8 +1603,11 @@
       <c r="G9" s="11" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H9" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1579,8 +1626,11 @@
       <c r="G10" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H10" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1599,8 +1649,11 @@
       <c r="G11" s="11" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H11" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -1619,8 +1672,11 @@
       <c r="G12" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H12" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1639,8 +1695,11 @@
       <c r="G13" s="11" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H13" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
@@ -1659,8 +1718,11 @@
       <c r="G14" s="11" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H14" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
@@ -1679,8 +1741,11 @@
       <c r="G15" s="11" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H15" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
@@ -1699,8 +1764,11 @@
       <c r="G16" s="13" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H16" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
@@ -1719,8 +1787,11 @@
       <c r="G17" s="13" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H17" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
@@ -1739,8 +1810,11 @@
       <c r="G18" s="13" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="H18" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>8</v>
       </c>
@@ -1759,8 +1833,11 @@
       <c r="G19" s="11" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="H19" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>8</v>
       </c>
@@ -1779,8 +1856,11 @@
       <c r="G20" s="11" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="H20" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>8</v>
       </c>
@@ -1799,8 +1879,11 @@
       <c r="G21" s="11" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H21" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
@@ -1819,8 +1902,11 @@
       <c r="G22" s="11" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H22" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>7</v>
       </c>
@@ -1839,8 +1925,11 @@
       <c r="G23" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H23" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>8</v>
       </c>
@@ -1859,8 +1948,11 @@
       <c r="G24" s="11" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H24" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
@@ -1879,8 +1971,11 @@
       <c r="G25" s="11" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H25" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>8</v>
       </c>
@@ -1899,8 +1994,11 @@
       <c r="G26" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H26" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>7</v>
       </c>
@@ -1919,8 +2017,11 @@
       <c r="G27" s="11" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H27" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>7</v>
       </c>
@@ -1939,8 +2040,11 @@
       <c r="G28" s="11" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H28" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>8</v>
       </c>
@@ -1959,8 +2063,11 @@
       <c r="G29" s="11" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H29" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>7</v>
       </c>
@@ -1979,8 +2086,11 @@
       <c r="G30" s="11" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H30" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>7</v>
       </c>
@@ -1999,8 +2109,11 @@
       <c r="G31" s="11" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H31" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>7</v>
       </c>
@@ -2019,8 +2132,11 @@
       <c r="G32" s="11" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H32" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>7</v>
       </c>
@@ -2039,8 +2155,11 @@
       <c r="G33" s="11" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H33" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>9</v>
       </c>
@@ -2059,8 +2178,11 @@
       <c r="G34" s="11" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H34" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>7</v>
       </c>
@@ -2079,8 +2201,11 @@
       <c r="G35" s="11" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H35" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
@@ -2099,8 +2224,11 @@
       <c r="G36" s="11" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H36" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
@@ -2119,8 +2247,11 @@
       <c r="G37" s="11" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H37" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>8</v>
       </c>
@@ -2139,8 +2270,11 @@
       <c r="G38" s="11" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H38" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>8</v>
       </c>
@@ -2159,8 +2293,11 @@
       <c r="G39" s="11" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H39" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>8</v>
       </c>
@@ -2179,8 +2316,11 @@
       <c r="G40" s="11" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H40" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>8</v>
       </c>
@@ -2199,8 +2339,11 @@
       <c r="G41" s="11" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H41" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>8</v>
       </c>
@@ -2219,8 +2362,11 @@
       <c r="G42" s="11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H42" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>8</v>
       </c>
@@ -2239,8 +2385,11 @@
       <c r="G43" s="11" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H43" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>8</v>
       </c>
@@ -2259,8 +2408,11 @@
       <c r="G44" s="11" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H44" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>7</v>
       </c>
@@ -2279,8 +2431,11 @@
       <c r="G45" s="11" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H45" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>7</v>
       </c>
@@ -2299,8 +2454,11 @@
       <c r="G46" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H46" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>8</v>
       </c>
@@ -2319,8 +2477,11 @@
       <c r="G47" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H47" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>7</v>
       </c>
@@ -2339,8 +2500,11 @@
       <c r="G48" s="11" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H48" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>8</v>
       </c>
@@ -2359,8 +2523,11 @@
       <c r="G49" s="11" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H49" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>8</v>
       </c>
@@ -2379,8 +2546,11 @@
       <c r="G50" s="11" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H50" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
         <v>8</v>
       </c>
@@ -2399,8 +2569,11 @@
       <c r="G51" s="11" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H51" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>8</v>
       </c>
@@ -2419,8 +2592,11 @@
       <c r="G52" s="11" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H52" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
         <v>8</v>
       </c>
@@ -2439,8 +2615,11 @@
       <c r="G53" s="13" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="H53" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A54" s="6" t="s">
         <v>7</v>
       </c>
@@ -2459,8 +2638,11 @@
       <c r="G54" s="13" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H54" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>8</v>
       </c>
@@ -2479,8 +2661,11 @@
       <c r="G55" s="11" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H55" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
         <v>8</v>
       </c>
@@ -2499,8 +2684,11 @@
       <c r="G56" s="11" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H56" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>8</v>
       </c>
@@ -2519,8 +2707,11 @@
       <c r="G57" s="11" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H57" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
         <v>8</v>
       </c>
@@ -2539,8 +2730,11 @@
       <c r="G58" s="11" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H58" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>7</v>
       </c>
@@ -2559,8 +2753,11 @@
       <c r="G59" s="11" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H59" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
         <v>8</v>
       </c>
@@ -2579,8 +2776,11 @@
       <c r="G60" s="11" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H60" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>7</v>
       </c>
@@ -2599,8 +2799,11 @@
       <c r="G61" s="11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H61" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>8</v>
       </c>
@@ -2619,8 +2822,11 @@
       <c r="G62" s="11" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H62" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
         <v>8</v>
       </c>
@@ -2639,8 +2845,11 @@
       <c r="G63" s="11" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H63" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
         <v>8</v>
       </c>
@@ -2659,8 +2868,11 @@
       <c r="G64" s="11" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H64" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
         <v>8</v>
       </c>
@@ -2679,8 +2891,11 @@
       <c r="G65" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H65" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
         <v>10</v>
       </c>
@@ -2699,8 +2914,11 @@
       <c r="G66" s="11" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H66" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
         <v>8</v>
       </c>
@@ -2719,8 +2937,11 @@
       <c r="G67" s="11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H67" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
         <v>8</v>
       </c>
@@ -2739,8 +2960,11 @@
       <c r="G68" s="11" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H68" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
         <v>7</v>
       </c>
@@ -2759,8 +2983,11 @@
       <c r="G69" s="11" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H69" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
         <v>8</v>
       </c>
@@ -2779,8 +3006,11 @@
       <c r="G70" s="11" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H70" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
         <v>8</v>
       </c>
@@ -2799,8 +3029,11 @@
       <c r="G71" s="11" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="H71" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
         <v>9</v>
       </c>
@@ -2819,8 +3052,11 @@
       <c r="G72" s="11" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="H72" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
         <v>8</v>
       </c>
@@ -2839,8 +3075,11 @@
       <c r="G73" s="11" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H73" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
         <v>8</v>
       </c>
@@ -2859,8 +3098,11 @@
       <c r="G74" s="11" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H74" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
         <v>7</v>
       </c>
@@ -2879,8 +3121,11 @@
       <c r="G75" s="11" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H75" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
         <v>8</v>
       </c>
@@ -2899,8 +3144,11 @@
       <c r="G76" s="11" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H76" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
         <v>8</v>
       </c>
@@ -2919,8 +3167,11 @@
       <c r="G77" s="11" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H77" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2939,8 +3190,11 @@
       <c r="G78" s="11" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H78" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
         <v>7</v>
       </c>
@@ -2959,8 +3213,11 @@
       <c r="G79" s="11" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H79" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
         <v>8</v>
       </c>
@@ -2979,8 +3236,11 @@
       <c r="G80" s="14" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H80" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
         <v>7</v>
       </c>
@@ -2999,8 +3259,11 @@
       <c r="G81" s="11" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H81" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
         <v>7</v>
       </c>
@@ -3019,8 +3282,11 @@
       <c r="G82" s="11" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H82" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
         <v>8</v>
       </c>
@@ -3039,8 +3305,11 @@
       <c r="G83" s="11" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H83" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="6" t="s">
         <v>8</v>
       </c>
@@ -3059,8 +3328,11 @@
       <c r="G84" s="13" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H84" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="s">
         <v>8</v>
       </c>
@@ -3079,8 +3351,11 @@
       <c r="G85" s="11" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H85" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="5" t="s">
         <v>8</v>
       </c>
@@ -3099,8 +3374,11 @@
       <c r="G86" s="11" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H86" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="5" t="s">
         <v>7</v>
       </c>
@@ -3119,8 +3397,11 @@
       <c r="G87" s="11" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H87" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" s="5" t="s">
         <v>8</v>
       </c>
@@ -3139,8 +3420,11 @@
       <c r="G88" s="11" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H88" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
         <v>7</v>
       </c>
@@ -3159,8 +3443,11 @@
       <c r="G89" s="13" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H89" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" s="5" t="s">
         <v>7</v>
       </c>
@@ -3179,8 +3466,11 @@
       <c r="G90" s="11" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H90" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="5" t="s">
         <v>8</v>
       </c>
@@ -3199,8 +3489,11 @@
       <c r="G91" s="11" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H91" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" s="5" t="s">
         <v>8</v>
       </c>
@@ -3219,8 +3512,11 @@
       <c r="G92" s="11" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H92" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" s="5" t="s">
         <v>7</v>
       </c>
@@ -3239,8 +3535,11 @@
       <c r="G93" s="11" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H93" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="5" t="s">
         <v>8</v>
       </c>
@@ -3259,8 +3558,11 @@
       <c r="G94" s="11" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H94" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" s="5" t="s">
         <v>8</v>
       </c>
@@ -3279,8 +3581,11 @@
       <c r="G95" s="11" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H95" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" s="5" t="s">
         <v>8</v>
       </c>
@@ -3299,8 +3604,11 @@
       <c r="G96" s="11" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H96" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="5" t="s">
         <v>8</v>
       </c>
@@ -3318,6 +3626,9 @@
       </c>
       <c r="G97" s="11" t="s">
         <v>204</v>
+      </c>
+      <c r="H97" s="23" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
